--- a/MCE_PL5_G5_T22.xlsx
+++ b/MCE_PL5_G5_T22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaquim Andrade\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João\Documents\GitHub\MCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B4BD74-BF04-418D-A729-FF215933ECED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8667F2D0-E249-481B-A6CC-3301D192FA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4291A316-1923-4F19-8778-22285B9FDE21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4291A316-1923-4F19-8778-22285B9FDE21}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -293,7 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7178,8 +7177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E620A608-A22A-4451-AB80-C6656365DF44}">
   <dimension ref="B2:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7239,7 +7238,7 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -7251,7 +7250,7 @@
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -7283,7 +7282,7 @@
         <v>3.5</v>
       </c>
       <c r="D8" s="4">
-        <f>C8*H$3/1000</f>
+        <f t="shared" ref="D8:D48" si="0">C8*H$3/1000</f>
         <v>1.1122984317099403E-4</v>
       </c>
       <c r="E8" s="10">
@@ -7300,7 +7299,7 @@
         <f>H8*H$3/1000</f>
         <v>1.398318028435354E-4</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <f>H8/1000</f>
         <v>4.4000000000000003E-3</v>
       </c>
@@ -7336,11 +7335,11 @@
         <v>3.5</v>
       </c>
       <c r="D9" s="4">
-        <f>C9*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1122984317099403E-4</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" ref="E9:E48" si="0">C9/1000</f>
+        <f t="shared" ref="E9:E48" si="1">C9/1000</f>
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="G9" s="9">
@@ -7350,11 +7349,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" ref="I9:I48" si="1">H9*H$3/1000</f>
+        <f t="shared" ref="I9:I48" si="2">H9*H$3/1000</f>
         <v>1.398318028435354E-4</v>
       </c>
-      <c r="J9" s="18">
-        <f t="shared" ref="J9:J48" si="2">H9/1000</f>
+      <c r="J9" s="17">
+        <f t="shared" ref="J9:J48" si="3">H9/1000</f>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="L9" s="9">
@@ -7364,11 +7363,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" ref="N9:N47" si="3">M9*H$3/1000</f>
+        <f t="shared" ref="N9:N47" si="4">M9*H$3/1000</f>
         <v>1.4618779388187787E-4</v>
       </c>
       <c r="O9" s="10">
-        <f t="shared" ref="O9:O48" si="4">M9/1000</f>
+        <f t="shared" ref="O9:O48" si="5">M9/1000</f>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="Q9" s="9">
@@ -7377,7 +7376,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="10">
-        <f t="shared" ref="T9:T48" si="5">D9+I9</f>
+        <f t="shared" ref="T9:T48" si="6">D9+I9</f>
         <v>2.5106164601452943E-4</v>
       </c>
     </row>
@@ -7389,11 +7388,11 @@
         <v>3.7</v>
       </c>
       <c r="D10" s="4">
-        <f>C10*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1758583420933656E-4</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="G10" s="9">
@@ -7403,11 +7402,11 @@
         <v>4.5</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.430097983627066E-4</v>
       </c>
-      <c r="J10" s="18">
-        <f t="shared" si="2"/>
+      <c r="J10" s="17">
+        <f t="shared" si="3"/>
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="L10" s="9">
@@ -7417,11 +7416,11 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5572178043939166E-4</v>
       </c>
       <c r="O10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9000000000000007E-3</v>
       </c>
       <c r="Q10" s="9">
@@ -7430,7 +7429,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6059563257204316E-4</v>
       </c>
     </row>
@@ -7442,11 +7441,11 @@
         <v>3.6</v>
       </c>
       <c r="D11" s="4">
-        <f>C11*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G11" s="9">
@@ -7456,11 +7455,11 @@
         <v>4.5</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.430097983627066E-4</v>
       </c>
-      <c r="J11" s="18">
-        <f t="shared" si="2"/>
+      <c r="J11" s="17">
+        <f t="shared" si="3"/>
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="L11" s="9">
@@ -7470,11 +7469,11 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5572178043939166E-4</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9000000000000007E-3</v>
       </c>
       <c r="Q11" s="9">
@@ -7483,7 +7482,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.574176370528719E-4</v>
       </c>
     </row>
@@ -7495,11 +7494,11 @@
         <v>3.6</v>
       </c>
       <c r="D12" s="4">
-        <f>C12*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G12" s="9">
@@ -7509,11 +7508,11 @@
         <v>4.5</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.430097983627066E-4</v>
       </c>
-      <c r="J12" s="18">
-        <f t="shared" si="2"/>
+      <c r="J12" s="17">
+        <f t="shared" si="3"/>
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="L12" s="9">
@@ -7523,11 +7522,11 @@
         <v>5</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5889977595856292E-4</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q12" s="9">
@@ -7536,7 +7535,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.574176370528719E-4</v>
       </c>
     </row>
@@ -7548,11 +7547,11 @@
         <v>3.6</v>
       </c>
       <c r="D13" s="4">
-        <f>C13*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G13" s="9">
@@ -7562,11 +7561,11 @@
         <v>4.5</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.430097983627066E-4</v>
       </c>
-      <c r="J13" s="18">
-        <f t="shared" si="2"/>
+      <c r="J13" s="17">
+        <f t="shared" si="3"/>
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="L13" s="9">
@@ -7576,11 +7575,11 @@
         <v>5</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5889977595856292E-4</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q13" s="9">
@@ -7589,7 +7588,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.574176370528719E-4</v>
       </c>
     </row>
@@ -7601,11 +7600,11 @@
         <v>3.6</v>
       </c>
       <c r="D14" s="4">
-        <f>C14*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G14" s="9">
@@ -7615,11 +7614,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J14" s="18">
-        <f t="shared" si="2"/>
+      <c r="J14" s="17">
+        <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="L14" s="9">
@@ -7629,11 +7628,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6207777147773415E-4</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0999999999999995E-3</v>
       </c>
       <c r="Q14" s="9">
@@ -7642,7 +7641,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6059563257204316E-4</v>
       </c>
     </row>
@@ -7654,11 +7653,11 @@
         <v>3.6</v>
       </c>
       <c r="D15" s="4">
-        <f>C15*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1440783869016529E-4</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G15" s="9">
@@ -7668,11 +7667,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J15" s="18">
-        <f t="shared" si="2"/>
+      <c r="J15" s="17">
+        <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="L15" s="9">
@@ -7682,11 +7681,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6207777147773415E-4</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0999999999999995E-3</v>
       </c>
       <c r="Q15" s="9">
@@ -7695,7 +7694,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6059563257204316E-4</v>
       </c>
     </row>
@@ -7707,11 +7706,11 @@
         <v>3.7</v>
       </c>
       <c r="D16" s="4">
-        <f>C16*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1758583420933656E-4</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="G16" s="9">
@@ -7721,11 +7720,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J16" s="18">
-        <f t="shared" si="2"/>
+      <c r="J16" s="17">
+        <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="L16" s="9">
@@ -7735,11 +7734,11 @@
         <v>5.2</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6525576699690544E-4</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="Q16" s="9">
@@ -7748,7 +7747,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6377362809121442E-4</v>
       </c>
     </row>
@@ -7760,11 +7759,11 @@
         <v>3.8</v>
       </c>
       <c r="D17" s="4">
-        <f>C17*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.2076382972850779E-4</v>
       </c>
       <c r="E17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8E-3</v>
       </c>
       <c r="G17" s="9">
@@ -7774,11 +7773,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J17" s="18">
-        <f t="shared" si="2"/>
+      <c r="J17" s="17">
+        <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="L17" s="9">
@@ -7788,11 +7787,11 @@
         <v>5.3</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6843376251607668E-4</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3E-3</v>
       </c>
       <c r="Q17" s="9">
@@ -7801,7 +7800,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6695162361038563E-4</v>
       </c>
     </row>
@@ -7813,11 +7812,11 @@
         <v>3.9</v>
       </c>
       <c r="D18" s="4">
-        <f>C18*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.2394182524767906E-4</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="G18" s="9">
@@ -7827,11 +7826,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4618779388187787E-4</v>
       </c>
-      <c r="J18" s="18">
-        <f t="shared" si="2"/>
+      <c r="J18" s="17">
+        <f t="shared" si="3"/>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="L18" s="9">
@@ -7841,11 +7840,11 @@
         <v>5.5</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.747897535544192E-4</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="Q18" s="9">
@@ -7854,7 +7853,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.701296191295569E-4</v>
       </c>
     </row>
@@ -7866,11 +7865,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D19" s="4">
-        <f>C19*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.3029781628602158E-4</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="G19" s="9">
@@ -7880,11 +7879,11 @@
         <v>4.8</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5254378492022039E-4</v>
       </c>
-      <c r="J19" s="18">
-        <f t="shared" si="2"/>
+      <c r="J19" s="17">
+        <f t="shared" si="3"/>
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="L19" s="9">
@@ -7894,11 +7893,11 @@
         <v>5.6</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7796774907359044E-4</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="Q19" s="9">
@@ -7907,7 +7906,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8284160120624195E-4</v>
       </c>
     </row>
@@ -7919,11 +7918,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D20" s="4">
-        <f>C20*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.3029781628602158E-4</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="G20" s="9">
@@ -7933,11 +7932,11 @@
         <v>4.7</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4936578940104913E-4</v>
       </c>
-      <c r="J20" s="18">
-        <f t="shared" si="2"/>
+      <c r="J20" s="17">
+        <f t="shared" si="3"/>
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="L20" s="9">
@@ -7947,11 +7946,11 @@
         <v>5.8</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8432374011193297E-4</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="Q20" s="9">
@@ -7960,7 +7959,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7966360568707068E-4</v>
       </c>
     </row>
@@ -7972,11 +7971,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D21" s="4">
-        <f>C21*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.398318028435354E-4</v>
       </c>
       <c r="E21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="G21" s="9">
@@ -7986,11 +7985,11 @@
         <v>4.8</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5254378492022039E-4</v>
       </c>
-      <c r="J21" s="18">
-        <f t="shared" si="2"/>
+      <c r="J21" s="17">
+        <f t="shared" si="3"/>
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="L21" s="9">
@@ -8000,11 +7999,11 @@
         <v>6.1</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9385772666944673E-4</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0999999999999995E-3</v>
       </c>
       <c r="Q21" s="9">
@@ -8013,7 +8012,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9237558776375579E-4</v>
       </c>
     </row>
@@ -8025,11 +8024,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D22" s="4">
-        <f>C22*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.4618779388187787E-4</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="G22" s="9">
@@ -8039,11 +8038,11 @@
         <v>4.8</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5254378492022039E-4</v>
       </c>
-      <c r="J22" s="18">
-        <f t="shared" si="2"/>
+      <c r="J22" s="17">
+        <f t="shared" si="3"/>
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="L22" s="9">
@@ -8053,11 +8052,11 @@
         <v>6.3</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0021371770778925E-4</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3E-3</v>
       </c>
       <c r="Q22" s="9">
@@ -8066,7 +8065,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9873157880209826E-4</v>
       </c>
     </row>
@@ -8078,11 +8077,11 @@
         <v>4.8</v>
       </c>
       <c r="D23" s="4">
-        <f>C23*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.5254378492022039E-4</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="G23" s="9">
@@ -8092,11 +8091,11 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5572178043939166E-4</v>
       </c>
-      <c r="J23" s="18">
-        <f t="shared" si="2"/>
+      <c r="J23" s="17">
+        <f t="shared" si="3"/>
         <v>4.9000000000000007E-3</v>
       </c>
       <c r="L23" s="9">
@@ -8106,11 +8105,11 @@
         <v>6.8</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1610369530364554E-4</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="Q23" s="9">
@@ -8119,7 +8118,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0826556535961205E-4</v>
       </c>
     </row>
@@ -8131,11 +8130,11 @@
         <v>5.2</v>
       </c>
       <c r="D24" s="4">
-        <f>C24*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.6525576699690544E-4</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="G24" s="9">
@@ -8145,11 +8144,11 @@
         <v>5</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5889977595856292E-4</v>
       </c>
-      <c r="J24" s="18">
-        <f t="shared" si="2"/>
+      <c r="J24" s="17">
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L24" s="9">
@@ -8159,11 +8158,11 @@
         <v>7.3</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3199367289950185E-4</v>
       </c>
       <c r="O24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="Q24" s="9">
@@ -8172,7 +8171,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2415554295546836E-4</v>
       </c>
     </row>
@@ -8184,11 +8183,11 @@
         <v>5.5</v>
       </c>
       <c r="D25" s="4">
-        <f>C25*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.747897535544192E-4</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="G25" s="9">
@@ -8198,11 +8197,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6207777147773415E-4</v>
       </c>
-      <c r="J25" s="18">
-        <f t="shared" si="2"/>
+      <c r="J25" s="17">
+        <f t="shared" si="3"/>
         <v>5.0999999999999995E-3</v>
       </c>
       <c r="L25" s="9">
@@ -8212,11 +8211,11 @@
         <v>7.8</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4788365049535811E-4</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="Q25" s="9">
@@ -8225,7 +8224,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3686752503215336E-4</v>
       </c>
     </row>
@@ -8237,11 +8236,11 @@
         <v>6.1</v>
       </c>
       <c r="D26" s="4">
-        <f>C26*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.9385772666944673E-4</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0999999999999995E-3</v>
       </c>
       <c r="G26" s="9">
@@ -8251,11 +8250,11 @@
         <v>5.5</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.747897535544192E-4</v>
       </c>
-      <c r="J26" s="18">
-        <f t="shared" si="2"/>
+      <c r="J26" s="17">
+        <f t="shared" si="3"/>
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="L26" s="9">
@@ -8265,11 +8264,11 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7966360568707079E-4</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="Q26" s="9">
@@ -8278,7 +8277,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6864748022386593E-4</v>
       </c>
     </row>
@@ -8290,11 +8289,11 @@
         <v>6.7</v>
       </c>
       <c r="D27" s="4">
-        <f>C27*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>2.129256997844743E-4</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="G27" s="9">
@@ -8304,11 +8303,11 @@
         <v>5.6</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7796774907359044E-4</v>
       </c>
-      <c r="J27" s="18">
-        <f t="shared" si="2"/>
+      <c r="J27" s="17">
+        <f t="shared" si="3"/>
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="L27" s="9">
@@ -8318,11 +8317,11 @@
         <v>9.9</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1462155639795457E-4</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="Q27" s="9">
@@ -8331,7 +8330,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9089344885806477E-4</v>
       </c>
     </row>
@@ -8343,11 +8342,11 @@
         <v>7.8</v>
       </c>
       <c r="D28" s="4">
-        <f>C28*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>2.4788365049535811E-4</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="G28" s="9">
@@ -8357,11 +8356,11 @@
         <v>5.8</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8432374011193297E-4</v>
       </c>
-      <c r="J28" s="18">
-        <f t="shared" si="2"/>
+      <c r="J28" s="17">
+        <f t="shared" si="3"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="L28" s="9">
@@ -8371,11 +8370,11 @@
         <v>11.5</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6546948470469472E-4</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.15E-2</v>
       </c>
       <c r="Q28" s="9">
@@ -8384,7 +8383,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3220739060729108E-4</v>
       </c>
     </row>
@@ -8396,11 +8395,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D29" s="4">
-        <f>C29*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>2.9237558776375574E-4</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="G29" s="9">
@@ -8410,11 +8409,11 @@
         <v>6</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9067973115027549E-4</v>
       </c>
-      <c r="J29" s="18">
-        <f t="shared" si="2"/>
+      <c r="J29" s="17">
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="L29" s="9">
@@ -8424,11 +8423,11 @@
         <v>13.8</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3856338164563366E-4</v>
       </c>
       <c r="O29" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3800000000000002E-2</v>
       </c>
       <c r="Q29" s="9">
@@ -8437,7 +8436,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8305531891403123E-4</v>
       </c>
     </row>
@@ -8449,11 +8448,11 @@
         <v>11.1</v>
       </c>
       <c r="D30" s="4">
-        <f>C30*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>3.5275750262800962E-4</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.11E-2</v>
       </c>
       <c r="G30" s="9">
@@ -8463,11 +8462,11 @@
         <v>6.4</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0339171322696054E-4</v>
       </c>
-      <c r="J30" s="18">
-        <f t="shared" si="2"/>
+      <c r="J30" s="17">
+        <f t="shared" si="3"/>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="L30" s="9">
@@ -8477,11 +8476,11 @@
         <v>17</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.402592382591139E-4</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q30" s="9">
@@ -8490,7 +8489,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5614921585497011E-4</v>
       </c>
     </row>
@@ -8502,11 +8501,11 @@
         <v>14.1</v>
       </c>
       <c r="D31" s="4">
-        <f>C31*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>4.4809736820314739E-4</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.41E-2</v>
       </c>
       <c r="G31" s="9">
@@ -8516,11 +8515,11 @@
         <v>6.9</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1928169082281683E-4</v>
       </c>
-      <c r="J31" s="18">
-        <f t="shared" si="2"/>
+      <c r="J31" s="17">
+        <f t="shared" si="3"/>
         <v>6.9000000000000008E-3</v>
       </c>
       <c r="L31" s="9">
@@ -8530,11 +8529,11 @@
         <v>22.3</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0869300077519061E-4</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.23E-2</v>
       </c>
       <c r="Q31" s="9">
@@ -8543,7 +8542,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.6737905902596419E-4</v>
       </c>
     </row>
@@ -8555,11 +8554,11 @@
         <v>18.399999999999999</v>
       </c>
       <c r="D32" s="4">
-        <f>C32*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>5.8475117552751147E-4</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.84E-2</v>
       </c>
       <c r="G32" s="9">
@@ -8569,11 +8568,11 @@
         <v>7.5</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3834966393784438E-4</v>
       </c>
-      <c r="J32" s="18">
-        <f t="shared" si="2"/>
+      <c r="J32" s="17">
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="L32" s="9">
@@ -8583,11 +8582,11 @@
         <v>28.4</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0255072744463731E-4</v>
       </c>
       <c r="O32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8399999999999998E-2</v>
       </c>
       <c r="Q32" s="9">
@@ -8596,7 +8595,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.2310083946535585E-4</v>
       </c>
     </row>
@@ -8608,11 +8607,11 @@
         <v>24.1</v>
       </c>
       <c r="D33" s="4">
-        <f>C33*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>7.6589692012027323E-4</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.41E-2</v>
       </c>
       <c r="G33" s="9">
@@ -8622,11 +8621,11 @@
         <v>8.5</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7012961912955695E-4</v>
       </c>
-      <c r="J33" s="18">
-        <f t="shared" si="2"/>
+      <c r="J33" s="17">
+        <f t="shared" si="3"/>
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="L33" s="9">
@@ -8636,11 +8635,11 @@
         <v>37.799999999999997</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2012823062467356E-3</v>
       </c>
       <c r="O33" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.78E-2</v>
       </c>
       <c r="Q33" s="9">
@@ -8649,7 +8648,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0360265392498301E-3</v>
       </c>
     </row>
@@ -8661,11 +8660,11 @@
         <v>31.8</v>
       </c>
       <c r="D34" s="4">
-        <f>C34*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.0106025750964602E-3</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1800000000000002E-2</v>
       </c>
       <c r="G34" s="9">
@@ -8675,11 +8674,11 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1144356087878331E-4</v>
       </c>
-      <c r="J34" s="18">
-        <f t="shared" si="2"/>
+      <c r="J34" s="17">
+        <f t="shared" si="3"/>
         <v>9.8000000000000014E-3</v>
       </c>
       <c r="L34" s="9">
@@ -8689,11 +8688,11 @@
         <v>49.3</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5667517909514301E-3</v>
       </c>
       <c r="O34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="Q34" s="9">
@@ -8702,7 +8701,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3220461359752435E-3</v>
       </c>
     </row>
@@ -8714,11 +8713,11 @@
         <v>42.5</v>
       </c>
       <c r="D35" s="4">
-        <f>C35*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.3506480956477847E-3</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="G35" s="9">
@@ -8728,11 +8727,11 @@
         <v>11.7</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7182547574303719E-4</v>
       </c>
-      <c r="J35" s="18">
-        <f t="shared" si="2"/>
+      <c r="J35" s="17">
+        <f t="shared" si="3"/>
         <v>1.1699999999999999E-2</v>
       </c>
       <c r="L35" s="9">
@@ -8742,11 +8741,11 @@
         <v>60</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.906797311502755E-3</v>
       </c>
       <c r="O35" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="Q35" s="9">
@@ -8755,7 +8754,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7224735713908218E-3</v>
       </c>
     </row>
@@ -8767,11 +8766,11 @@
         <v>52.7</v>
       </c>
       <c r="D36" s="4">
-        <f>C36*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.6748036386032533E-3</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2700000000000004E-2</v>
       </c>
       <c r="G36" s="9">
@@ -8781,11 +8780,11 @@
         <v>14.3</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5445335924148992E-4</v>
       </c>
-      <c r="J36" s="18">
-        <f t="shared" si="2"/>
+      <c r="J36" s="17">
+        <f t="shared" si="3"/>
         <v>1.43E-2</v>
       </c>
       <c r="L36" s="9">
@@ -8795,11 +8794,11 @@
         <v>65.5</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0815870650571743E-3</v>
       </c>
       <c r="O36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="Q36" s="9">
@@ -8808,7 +8807,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.129256997844743E-3</v>
       </c>
     </row>
@@ -8820,11 +8819,11 @@
         <v>58.3</v>
       </c>
       <c r="D37" s="4">
-        <f>C37*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.8527713876768436E-3</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="G37" s="9">
@@ -8834,11 +8833,11 @@
         <v>18.2</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7839518448916894E-4</v>
       </c>
-      <c r="J37" s="18">
-        <f t="shared" si="2"/>
+      <c r="J37" s="17">
+        <f t="shared" si="3"/>
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="L37" s="9">
@@ -8848,11 +8847,11 @@
         <v>65.2</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0720530784996607E-3</v>
       </c>
       <c r="O37" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5200000000000008E-2</v>
       </c>
       <c r="Q37" s="9">
@@ -8861,7 +8860,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4311665721660127E-3</v>
       </c>
     </row>
@@ -8873,11 +8872,11 @@
         <v>54.8</v>
       </c>
       <c r="D38" s="4">
-        <f>C38*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.7415415445058494E-3</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4799999999999995E-2</v>
       </c>
       <c r="G38" s="9">
@@ -8887,11 +8886,11 @@
         <v>24</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6271892460110196E-4</v>
       </c>
-      <c r="J38" s="18">
-        <f t="shared" si="2"/>
+      <c r="J38" s="17">
+        <f t="shared" si="3"/>
         <v>2.4E-2</v>
       </c>
       <c r="L38" s="9">
@@ -8901,11 +8900,11 @@
         <v>61</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9385772666944674E-3</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q38" s="9">
@@ -8914,7 +8913,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5042604691069515E-3</v>
       </c>
     </row>
@@ -8926,11 +8925,11 @@
         <v>45</v>
       </c>
       <c r="D39" s="4">
-        <f>C39*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.4300979836270663E-3</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G39" s="9">
@@ -8940,11 +8939,11 @@
         <v>32.4</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0296705482114876E-3</v>
       </c>
-      <c r="J39" s="18">
-        <f t="shared" si="2"/>
+      <c r="J39" s="17">
+        <f t="shared" si="3"/>
         <v>3.2399999999999998E-2</v>
       </c>
       <c r="L39" s="9">
@@ -8954,11 +8953,11 @@
         <v>58.7</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8654833697535286E-3</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="Q39" s="9">
@@ -8967,7 +8966,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4597685318385539E-3</v>
       </c>
     </row>
@@ -8979,11 +8978,11 @@
         <v>34.200000000000003</v>
       </c>
       <c r="D40" s="4">
-        <f>C40*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>1.0868744675565705E-3</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4200000000000001E-2</v>
       </c>
       <c r="G40" s="9">
@@ -8993,11 +8992,11 @@
         <v>42</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3347581180519284E-3</v>
       </c>
-      <c r="J40" s="18">
-        <f t="shared" si="2"/>
+      <c r="J40" s="17">
+        <f t="shared" si="3"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="L40" s="9">
@@ -9007,11 +9006,11 @@
         <v>60.7</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9290432801369539E-3</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0700000000000004E-2</v>
       </c>
       <c r="Q40" s="9">
@@ -9020,7 +9019,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4216325856084991E-3</v>
       </c>
     </row>
@@ -9032,11 +9031,11 @@
         <v>24.8</v>
       </c>
       <c r="D41" s="4">
-        <f>C41*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>7.8814288875447207E-4</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4799999999999999E-2</v>
       </c>
       <c r="G41" s="9">
@@ -9046,11 +9045,11 @@
         <v>53.1</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6875156206799381E-3</v>
       </c>
-      <c r="J41" s="18">
-        <f t="shared" si="2"/>
+      <c r="J41" s="17">
+        <f t="shared" si="3"/>
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="L41" s="9">
@@ -9060,11 +9059,11 @@
         <v>66.2</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1038330336913729E-3</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6200000000000009E-2</v>
       </c>
       <c r="Q41" s="9">
@@ -9073,7 +9072,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.47565850943441E-3</v>
       </c>
     </row>
@@ -9085,11 +9084,11 @@
         <v>18.600000000000001</v>
       </c>
       <c r="D42" s="4">
-        <f>C42*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>5.91107166565854E-4</v>
       </c>
       <c r="E42" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8600000000000002E-2</v>
       </c>
       <c r="G42" s="9">
@@ -9099,11 +9098,11 @@
         <v>57.2</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8178134369659597E-3</v>
       </c>
-      <c r="J42" s="18">
-        <f t="shared" si="2"/>
+      <c r="J42" s="17">
+        <f t="shared" si="3"/>
         <v>5.7200000000000001E-2</v>
       </c>
       <c r="L42" s="9">
@@ -9113,11 +9112,11 @@
         <v>69.7</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2150628768623673E-3</v>
       </c>
       <c r="O42" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9699999999999998E-2</v>
       </c>
       <c r="Q42" s="9">
@@ -9126,7 +9125,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4089206035318137E-3</v>
       </c>
     </row>
@@ -9138,11 +9137,11 @@
         <v>14.3</v>
       </c>
       <c r="D43" s="4">
-        <f>C43*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>4.5445335924148992E-4</v>
       </c>
       <c r="E43" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.43E-2</v>
       </c>
       <c r="G43" s="9">
@@ -9152,11 +9151,11 @@
         <v>51.4</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6334896968540266E-3</v>
       </c>
-      <c r="J43" s="18">
-        <f t="shared" si="2"/>
+      <c r="J43" s="17">
+        <f t="shared" si="3"/>
         <v>5.1400000000000001E-2</v>
       </c>
       <c r="L43" s="9">
@@ -9166,11 +9165,11 @@
         <v>59.3</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8845513428685562E-3</v>
       </c>
       <c r="O43" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="Q43" s="9">
@@ -9179,7 +9178,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0879430560955163E-3</v>
       </c>
     </row>
@@ -9191,11 +9190,11 @@
         <v>11.5</v>
       </c>
       <c r="D44" s="4">
-        <f>C44*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>3.6546948470469472E-4</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.15E-2</v>
       </c>
       <c r="G44" s="9">
@@ -9205,11 +9204,11 @@
         <v>38.4</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2203502793617631E-3</v>
       </c>
-      <c r="J44" s="18">
-        <f t="shared" si="2"/>
+      <c r="J44" s="17">
+        <f t="shared" si="3"/>
         <v>3.8399999999999997E-2</v>
       </c>
       <c r="L44" s="9">
@@ -9219,11 +9218,11 @@
         <v>44.3</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4078520149928672E-3</v>
       </c>
       <c r="O44" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="Q44" s="9">
@@ -9232,7 +9231,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5858197640664579E-3</v>
       </c>
     </row>
@@ -9244,11 +9243,11 @@
         <v>9.5</v>
       </c>
       <c r="D45" s="4">
-        <f>C45*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>3.0190957432126952E-4</v>
       </c>
       <c r="E45" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="G45" s="9">
@@ -9258,11 +9257,11 @@
         <v>28.1</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9301674088712352E-4</v>
       </c>
-      <c r="J45" s="18">
-        <f t="shared" si="2"/>
+      <c r="J45" s="17">
+        <f t="shared" si="3"/>
         <v>2.81E-2</v>
       </c>
       <c r="L45" s="9">
@@ -9272,11 +9271,11 @@
         <v>31.1</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.883566064622614E-4</v>
       </c>
       <c r="O45" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1100000000000003E-2</v>
       </c>
       <c r="Q45" s="9">
@@ -9285,7 +9284,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.194926315208393E-3</v>
       </c>
     </row>
@@ -9297,11 +9296,11 @@
         <v>8.1</v>
       </c>
       <c r="D46" s="4">
-        <f>C46*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>2.574176370528719E-4</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="G46" s="9">
@@ -9311,11 +9310,11 @@
         <v>20.9</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6420106350679282E-4</v>
       </c>
-      <c r="J46" s="18">
-        <f t="shared" si="2"/>
+      <c r="J46" s="17">
+        <f t="shared" si="3"/>
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="L46" s="9">
@@ -9325,11 +9324,11 @@
         <v>22.6</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.182269873327044E-4</v>
       </c>
       <c r="O46" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2600000000000002E-2</v>
       </c>
       <c r="Q46" s="9">
@@ -9338,7 +9337,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2161870055966467E-4</v>
       </c>
     </row>
@@ -9350,11 +9349,11 @@
         <v>7.1</v>
       </c>
       <c r="D47" s="4">
-        <f>C47*H$3/1000</f>
+        <f t="shared" si="0"/>
         <v>2.2563768186115933E-4</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0999999999999995E-3</v>
       </c>
       <c r="G47" s="9">
@@ -9364,11 +9363,11 @@
         <v>15.8</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0212329202905886E-4</v>
       </c>
-      <c r="J47" s="18">
-        <f t="shared" si="2"/>
+      <c r="J47" s="17">
+        <f t="shared" si="3"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="L47" s="9">
@@ -9378,11 +9377,11 @@
         <v>17.3</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4979322481662769E-4</v>
       </c>
       <c r="O47" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="Q47" s="9">
@@ -9391,7 +9390,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2776097389021818E-4</v>
       </c>
     </row>
@@ -9402,12 +9401,12 @@
       <c r="C48" s="12">
         <v>6.4</v>
       </c>
-      <c r="D48" s="16">
-        <f>C48*H$3/1000</f>
+      <c r="D48" s="15">
+        <f t="shared" si="0"/>
         <v>2.0339171322696054E-4</v>
       </c>
       <c r="E48" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="G48" s="11">
@@ -9417,11 +9416,11 @@
         <v>12.6</v>
       </c>
       <c r="I48" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.004274354155785E-4</v>
       </c>
-      <c r="J48" s="19">
-        <f t="shared" si="2"/>
+      <c r="J48" s="18">
+        <f t="shared" si="3"/>
         <v>1.26E-2</v>
       </c>
       <c r="L48" s="11">
@@ -9435,7 +9434,7 @@
         <v>4.3220739060729108E-4</v>
       </c>
       <c r="O48" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="Q48" s="11">
@@ -9444,7 +9443,7 @@
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.0381914864253905E-4</v>
       </c>
     </row>
@@ -9493,7 +9492,7 @@
       <c r="K114" t="s">
         <v>20</v>
       </c>
-      <c r="L114" s="15">
+      <c r="L114" s="14">
         <f>L110/L112</f>
         <v>119.57106269691663</v>
       </c>

--- a/MCE_PL5_G5_T22.xlsx
+++ b/MCE_PL5_G5_T22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João\Documents\GitHub\MCE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\OneDrive\Documentos\GitHub\MCE\MCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8667F2D0-E249-481B-A6CC-3301D192FA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8289CF6D-ACE3-439F-BDDB-8B332F4002BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4291A316-1923-4F19-8778-22285B9FDE21}"/>
   </bookViews>
@@ -336,30 +336,34 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
+                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Tensão</a:t>
+              <a:rPr lang="pt-PT" sz="1400"/>
+              <a:t>Tensão em função da distância(bobinas em série)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> em função da distância(bobina 1)</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15586111111111112"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -368,46 +372,868 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.0469816272965886E-2"/>
-          <c:y val="0.18560185185185185"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bobina 1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$8:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$E$8:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.84E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.2700000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.4000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2433-4986-BB80-A7F0E1926841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bobina 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$G$8:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$J$8:$J$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.8000000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.1400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.81E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.26E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2433-4986-BB80-A7F0E1926841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bobina 1 + Bobina 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$8:$L$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$Q$8:$Q$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3999999999999977E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8999999999999982E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3999999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6999999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4200000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.8799999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.740000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7900000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.5800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.5700000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.99E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-2433-4986-BB80-A7F0E1926841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Bobinas em série</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -434,7 +1260,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$B$8:$B$48</c:f>
+              <c:f>Folha1!$L$8:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -566,132 +1392,132 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$E$8:$E$48</c:f>
+              <c:f>Folha1!$O$8:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.5000000000000001E-3</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5000000000000001E-3</c:v>
+                  <c:v>4.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7000000000000002E-3</c:v>
+                  <c:v>4.9000000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5999999999999999E-3</c:v>
+                  <c:v>4.9000000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5999999999999999E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5999999999999999E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5999999999999999E-3</c:v>
+                  <c:v>5.0999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5999999999999999E-3</c:v>
+                  <c:v>5.0999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7000000000000002E-3</c:v>
+                  <c:v>5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8E-3</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8999999999999998E-3</c:v>
+                  <c:v>5.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0999999999999995E-3</c:v>
+                  <c:v>5.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0999999999999995E-3</c:v>
+                  <c:v>5.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4000000000000003E-3</c:v>
+                  <c:v>6.0999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5999999999999999E-3</c:v>
+                  <c:v>6.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7999999999999996E-3</c:v>
+                  <c:v>6.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1999999999999998E-3</c:v>
+                  <c:v>7.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4999999999999997E-3</c:v>
+                  <c:v>7.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0999999999999995E-3</c:v>
+                  <c:v>8.8000000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7000000000000002E-3</c:v>
+                  <c:v>9.9000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7999999999999996E-3</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.1999999999999998E-3</c:v>
+                  <c:v>1.3800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.11E-2</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.41E-2</c:v>
+                  <c:v>2.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.84E-2</c:v>
+                  <c:v>2.8399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.41E-2</c:v>
+                  <c:v>3.78E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1800000000000002E-2</c:v>
+                  <c:v>4.9299999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.2500000000000003E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2700000000000004E-2</c:v>
+                  <c:v>6.5500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.8299999999999998E-2</c:v>
+                  <c:v>6.5200000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4799999999999995E-2</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>5.8700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4200000000000001E-2</c:v>
+                  <c:v>6.0700000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4799999999999999E-2</c:v>
+                  <c:v>6.6200000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.8600000000000002E-2</c:v>
+                  <c:v>6.9699999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.43E-2</c:v>
+                  <c:v>5.9299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>4.4299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
+                  <c:v>3.1100000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.0999999999999996E-3</c:v>
+                  <c:v>2.2600000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.0999999999999995E-3</c:v>
+                  <c:v>1.7299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.4000000000000003E-3</c:v>
+                  <c:v>1.3599999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,7 +1525,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7200-49FC-B211-9A6B3EDF15BF}"/>
+              <c16:uniqueId val="{00000009-2433-4986-BB80-A7F0E1926841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -711,11 +1537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1308662752"/>
-        <c:axId val="1308666080"/>
+        <c:axId val="1310237040"/>
+        <c:axId val="1310235792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1308662752"/>
+        <c:axId val="1310237040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,13 +1583,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
+                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -772,12 +1599,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1308666080"/>
+        <c:crossAx val="1310235792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1308666080"/>
+        <c:axId val="1310235792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,13 +1646,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
+                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -834,43 +1662,36 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1308662752"/>
+        <c:crossAx val="1310237040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:effectLst/>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
     </a:p>
@@ -4393,6 +5214,1356 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>B1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> em função da distância</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bobinas em série</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$8:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$N$8:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.4618779388187787E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4618779388187787E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5572178043939166E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5572178043939166E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5889977595856292E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5889977595856292E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6207777147773415E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6207777147773415E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6525576699690544E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6843376251607668E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.747897535544192E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7796774907359044E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8432374011193297E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9385772666944673E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0021371770778925E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1610369530364554E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3199367289950185E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4788365049535811E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7966360568707079E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1462155639795457E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6546948470469472E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3856338164563366E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.402592382591139E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0869300077519061E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0255072744463731E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2012823062467356E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5667517909514301E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.906797311502755E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0815870650571743E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0720530784996607E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9385772666944674E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8654833697535286E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9290432801369539E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1038330336913729E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2150628768623673E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8845513428685562E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4078520149928672E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.883566064622614E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.182269873327044E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4979322481662769E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.3220739060729108E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-01FF-403B-89CD-CB9A547BBCE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bobina 1 + Bobina 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$8:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$T$8:$T$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2.5106164601452943E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5106164601452943E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6059563257204316E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.574176370528719E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.574176370528719E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.574176370528719E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6059563257204316E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6059563257204316E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6377362809121442E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6695162361038563E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.701296191295569E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8284160120624195E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7966360568707068E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9237558776375579E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9873157880209826E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0826556535961205E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2415554295546836E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3686752503215336E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6864748022386593E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9089344885806477E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3220739060729108E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8305531891403123E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5614921585497011E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6737905902596419E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2310083946535585E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0360265392498301E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3220461359752435E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7224735713908218E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.129256997844743E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4311665721660127E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5042604691069515E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4597685318385539E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4216325856084991E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.47565850943441E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4089206035318137E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0879430560955163E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5858197640664579E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.194926315208393E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.2161870055966467E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.2776097389021818E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.0381914864253905E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-01FF-403B-89CD-CB9A547BBCE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bobina 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$8:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$I$8:$I$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.398318028435354E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.398318028435354E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.430097983627066E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.430097983627066E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.430097983627066E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.430097983627066E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4618779388187787E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4618779388187787E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4618779388187787E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4618779388187787E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4618779388187787E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5254378492022039E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4936578940104913E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5254378492022039E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5254378492022039E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5572178043939166E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5889977595856292E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6207777147773415E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.747897535544192E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7796774907359044E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8432374011193297E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9067973115027549E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0339171322696054E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1928169082281683E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3834966393784438E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7012961912955695E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1144356087878331E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7182547574303719E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5445335924148992E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.7839518448916894E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.6271892460110196E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0296705482114876E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3347581180519284E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6875156206799381E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8178134369659597E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6334896968540266E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2203502793617631E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.9301674088712352E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.6420106350679282E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0212329202905886E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.004274354155785E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-01FF-403B-89CD-CB9A547BBCE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Bobina 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$8:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$D$8:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.1122984317099403E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1122984317099403E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1758583420933656E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1440783869016529E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1440783869016529E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1440783869016529E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1440783869016529E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1440783869016529E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1758583420933656E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2076382972850779E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2394182524767906E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3029781628602158E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3029781628602158E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.398318028435354E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4618779388187787E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5254378492022039E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6525576699690544E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.747897535544192E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9385772666944673E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.129256997844743E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4788365049535811E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9237558776375574E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5275750262800962E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4809736820314739E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8475117552751147E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.6589692012027323E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0106025750964602E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3506480956477847E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6748036386032533E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8527713876768436E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7415415445058494E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4300979836270663E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0868744675565705E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8814288875447207E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.91107166565854E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5445335924148992E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6546948470469472E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0190957432126952E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.574176370528719E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2563768186115933E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0339171322696054E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-01FF-403B-89CD-CB9A547BBCE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1404682640"/>
+        <c:axId val="1404681392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1404682640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1404681392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1404681392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1404682640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4474,46 +6645,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6101,536 +8232,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>230678</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>29787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>512618</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>29787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6870,6 +8485,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>427111</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>1039</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90A7CAC-479E-436E-B009-DB7E530B1904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7177,8 +8830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E620A608-A22A-4451-AB80-C6656365DF44}">
   <dimension ref="B2:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U98" sqref="U98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
